--- a/INTLINE/data/134/DEUSTATIS/old/Export price index - total.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/Export price index - total.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="86">
   <si>
     <t>Index of export prices (incl. rates of change): Germany,
 months</t>
@@ -265,13 +265,16 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:34:34</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 04:10:20</t>
   </si>
 </sst>
 </file>
@@ -11297,24 +11300,195 @@
       <c r="B725" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="C725" t="s" s="10">
+      <c r="C725" t="n" s="10">
+        <v>113.0</v>
+      </c>
+      <c r="D725" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E725" t="n" s="10">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s" s="9">
         <v>82</v>
       </c>
-      <c r="D725" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="E725" t="s" s="10">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="s" s="11">
+      <c r="B726" t="s" s="13">
+        <v>9</v>
+      </c>
+      <c r="C726" t="n" s="10">
+        <v>115.0</v>
+      </c>
+      <c r="D726" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="E726" t="n" s="10">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="B727" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="C727" t="n" s="10">
+        <v>116.1</v>
+      </c>
+      <c r="D727" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E727" t="n" s="10">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="B728" t="s" s="13">
+        <v>13</v>
+      </c>
+      <c r="C728" t="s" s="10">
         <v>83</v>
       </c>
-    </row>
-    <row r="728">
-      <c r="A728" t="s" s="12">
+      <c r="D728" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="E728" t="s" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="B729" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="C729" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="D729" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="E729" t="s" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="B730" t="s" s="13">
+        <v>15</v>
+      </c>
+      <c r="C730" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="D730" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="E730" t="s" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="B731" t="s" s="13">
+        <v>16</v>
+      </c>
+      <c r="C731" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="D731" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="E731" t="s" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="B732" t="s" s="13">
+        <v>17</v>
+      </c>
+      <c r="C732" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="D732" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="E732" t="s" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="B733" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="C733" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="D733" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="E733" t="s" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="B734" t="s" s="13">
+        <v>19</v>
+      </c>
+      <c r="C734" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="D734" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="E734" t="s" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="B735" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="C735" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="D735" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="E735" t="s" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="B736" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="C736" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="D736" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="E736" t="s" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="B737" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="C737" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="D737" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="E737" t="s" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="s" s="11">
         <v>84</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="s" s="12">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -11327,7 +11501,7 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup usePrinterDefaults="false"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:34:38&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 04:10:24&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>